--- a/biology/Médecine/STXBP1/STXBP1.xlsx
+++ b/biology/Médecine/STXBP1/STXBP1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le STXBP1 (pour « Syntaxin-binding protein 1 »), ou MUNC18-1, est une protéine dont le gène est le STXBP1 situé sur le chromosome 9 humain.
 L association STXBP1 France a été créée en août 2022.
@@ -514,9 +526,11 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'une protéine exprimée par les neurones, interagissant avec la syntaxine et intervenant dans le relargage (exocytose) des vésicules[5]. Il contribue à la stabilisation de la syntaxine 1 dans le complexe protéique SNARE[6]. Il permet ainsi de contrôler la récupération des synapses après relargage des neurotransmetteurs[7] et influence, par ce biais, la neurotransmission dans son étage pré-synaptique[8]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une protéine exprimée par les neurones, interagissant avec la syntaxine et intervenant dans le relargage (exocytose) des vésicules. Il contribue à la stabilisation de la syntaxine 1 dans le complexe protéique SNARE. Il permet ainsi de contrôler la récupération des synapses après relargage des neurotransmetteurs et influence, par ce biais, la neurotransmission dans son étage pré-synaptique. 
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La mutation hétérozygote de son gène entraîne la formation d'une protéine plus fragile et moins fonctionnelle[9] et provoque près de 10 %[10] des Syndromes d'Ohtahara[5], consistant en une encéphalopathie juvénile avec comitialité et retard mental. Ces mutations peuvent également provoquer des formes proches mais sans épilepsie[11].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La mutation hétérozygote de son gène entraîne la formation d'une protéine plus fragile et moins fonctionnelle et provoque près de 10 % des Syndromes d'Ohtahara, consistant en une encéphalopathie juvénile avec comitialité et retard mental. Ces mutations peuvent également provoquer des formes proches mais sans épilepsie.
 </t>
         </is>
       </c>
